--- a/data-raw/counts_baseball/counts_baseball.xlsx
+++ b/data-raw/counts_baseball/counts_baseball.xlsx
@@ -400,7 +400,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -533,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +552,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -571,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -609,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -666,7 +666,7 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -685,7 +685,7 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -704,7 +704,7 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -723,7 +723,7 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -799,7 +799,7 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -875,7 +875,7 @@
         <v>26</v>
       </c>
       <c r="E27">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -894,7 +894,7 @@
         <v>27</v>
       </c>
       <c r="E28">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -970,7 +970,7 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
@@ -1027,7 +1027,7 @@
         <v>34</v>
       </c>
       <c r="E35">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -1084,7 +1084,7 @@
         <v>37</v>
       </c>
       <c r="E38">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -1293,7 +1293,7 @@
         <v>48</v>
       </c>
       <c r="E49">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
@@ -1331,7 +1331,7 @@
         <v>50</v>
       </c>
       <c r="E51">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
@@ -1369,7 +1369,7 @@
         <v>52</v>
       </c>
       <c r="E53">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
@@ -1559,7 +1559,7 @@
         <v>62</v>
       </c>
       <c r="E63">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
@@ -1616,7 +1616,7 @@
         <v>65</v>
       </c>
       <c r="E66">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -1654,7 +1654,7 @@
         <v>67</v>
       </c>
       <c r="E68">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
@@ -1673,7 +1673,7 @@
         <v>68</v>
       </c>
       <c r="E69">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
@@ -1711,7 +1711,7 @@
         <v>70</v>
       </c>
       <c r="E71">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
@@ -1749,7 +1749,7 @@
         <v>72</v>
       </c>
       <c r="E73">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -1768,7 +1768,7 @@
         <v>73</v>
       </c>
       <c r="E74">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
@@ -1806,7 +1806,7 @@
         <v>75</v>
       </c>
       <c r="E76">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
@@ -1920,7 +1920,7 @@
         <v>81</v>
       </c>
       <c r="E82">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
@@ -1958,7 +1958,7 @@
         <v>83</v>
       </c>
       <c r="E84">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -1977,7 +1977,7 @@
         <v>84</v>
       </c>
       <c r="E85">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
@@ -2034,7 +2034,7 @@
         <v>87</v>
       </c>
       <c r="E88">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89">
@@ -2053,7 +2053,7 @@
         <v>88</v>
       </c>
       <c r="E89">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -2110,7 +2110,7 @@
         <v>91</v>
       </c>
       <c r="E92">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
@@ -2148,7 +2148,7 @@
         <v>93</v>
       </c>
       <c r="E94">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
@@ -2186,7 +2186,7 @@
         <v>95</v>
       </c>
       <c r="E96">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
@@ -2205,7 +2205,7 @@
         <v>96</v>
       </c>
       <c r="E97">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
@@ -2281,7 +2281,7 @@
         <v>100</v>
       </c>
       <c r="E101">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102">
@@ -2319,7 +2319,7 @@
         <v>102</v>
       </c>
       <c r="E103">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104">
@@ -2338,7 +2338,7 @@
         <v>103</v>
       </c>
       <c r="E104">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105">
@@ -2433,7 +2433,7 @@
         <v>108</v>
       </c>
       <c r="E109">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110">
@@ -2452,7 +2452,7 @@
         <v>109</v>
       </c>
       <c r="E110">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
@@ -2471,7 +2471,7 @@
         <v>110</v>
       </c>
       <c r="E111">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
@@ -2585,7 +2585,7 @@
         <v>116</v>
       </c>
       <c r="E117">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
@@ -2604,7 +2604,7 @@
         <v>117</v>
       </c>
       <c r="E118">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119">
@@ -2642,7 +2642,7 @@
         <v>119</v>
       </c>
       <c r="E120">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
@@ -2699,7 +2699,7 @@
         <v>122</v>
       </c>
       <c r="E123">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -2794,7 +2794,7 @@
         <v>127</v>
       </c>
       <c r="E128">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129">
@@ -2851,7 +2851,7 @@
         <v>130</v>
       </c>
       <c r="E131">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132">
@@ -2889,7 +2889,7 @@
         <v>132</v>
       </c>
       <c r="E133">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134">
@@ -2908,7 +2908,7 @@
         <v>133</v>
       </c>
       <c r="E134">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
@@ -2927,7 +2927,7 @@
         <v>134</v>
       </c>
       <c r="E135">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136">
@@ -2946,7 +2946,7 @@
         <v>135</v>
       </c>
       <c r="E136">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137">
@@ -3003,7 +3003,7 @@
         <v>138</v>
       </c>
       <c r="E139">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140">
@@ -3117,7 +3117,7 @@
         <v>144</v>
       </c>
       <c r="E145">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146">
@@ -3155,7 +3155,7 @@
         <v>146</v>
       </c>
       <c r="E147">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148">
@@ -3174,7 +3174,7 @@
         <v>147</v>
       </c>
       <c r="E148">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149">
@@ -3212,7 +3212,7 @@
         <v>149</v>
       </c>
       <c r="E150">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151">
@@ -3231,7 +3231,7 @@
         <v>150</v>
       </c>
       <c r="E151">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
@@ -3345,7 +3345,7 @@
         <v>156</v>
       </c>
       <c r="E157">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158">
@@ -3497,7 +3497,7 @@
         <v>164</v>
       </c>
       <c r="E165">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166">
@@ -3535,7 +3535,7 @@
         <v>166</v>
       </c>
       <c r="E167">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168">
@@ -3611,7 +3611,7 @@
         <v>170</v>
       </c>
       <c r="E171">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172">
@@ -3630,7 +3630,7 @@
         <v>171</v>
       </c>
       <c r="E172">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173">
@@ -3649,7 +3649,7 @@
         <v>172</v>
       </c>
       <c r="E173">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174">
@@ -3725,7 +3725,7 @@
         <v>176</v>
       </c>
       <c r="E177">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
@@ -3820,7 +3820,7 @@
         <v>181</v>
       </c>
       <c r="E182">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183">
@@ -3839,7 +3839,7 @@
         <v>182</v>
       </c>
       <c r="E183">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="184">
@@ -3858,7 +3858,7 @@
         <v>183</v>
       </c>
       <c r="E184">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185">
@@ -3896,7 +3896,7 @@
         <v>185</v>
       </c>
       <c r="E186">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="187">
@@ -3915,7 +3915,7 @@
         <v>186</v>
       </c>
       <c r="E187">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188">
@@ -3934,7 +3934,7 @@
         <v>187</v>
       </c>
       <c r="E188">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189">
@@ -3953,7 +3953,7 @@
         <v>188</v>
       </c>
       <c r="E189">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190">
@@ -3972,7 +3972,7 @@
         <v>189</v>
       </c>
       <c r="E190">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="191">
@@ -4010,7 +4010,7 @@
         <v>191</v>
       </c>
       <c r="E192">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193">
@@ -4048,7 +4048,7 @@
         <v>193</v>
       </c>
       <c r="E194">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195">
@@ -4067,7 +4067,7 @@
         <v>194</v>
       </c>
       <c r="E195">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="196">
@@ -4086,7 +4086,7 @@
         <v>195</v>
       </c>
       <c r="E196">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="197">
@@ -4105,7 +4105,7 @@
         <v>196</v>
       </c>
       <c r="E197">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198">
@@ -4143,7 +4143,7 @@
         <v>198</v>
       </c>
       <c r="E199">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200">
@@ -4181,7 +4181,7 @@
         <v>200</v>
       </c>
       <c r="E201">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202">
@@ -4333,7 +4333,7 @@
         <v>208</v>
       </c>
       <c r="E209">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210">
@@ -4352,7 +4352,7 @@
         <v>209</v>
       </c>
       <c r="E210">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211">
@@ -4371,7 +4371,7 @@
         <v>210</v>
       </c>
       <c r="E211">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212">
@@ -4409,7 +4409,7 @@
         <v>212</v>
       </c>
       <c r="E213">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="214">
@@ -4447,7 +4447,7 @@
         <v>214</v>
       </c>
       <c r="E215">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216">
@@ -4466,7 +4466,7 @@
         <v>215</v>
       </c>
       <c r="E216">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="217">
@@ -4485,7 +4485,7 @@
         <v>216</v>
       </c>
       <c r="E217">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218">
@@ -4504,7 +4504,7 @@
         <v>217</v>
       </c>
       <c r="E218">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="219">
@@ -4599,7 +4599,7 @@
         <v>222</v>
       </c>
       <c r="E223">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="224">
@@ -4637,7 +4637,7 @@
         <v>224</v>
       </c>
       <c r="E225">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="226">
@@ -4713,7 +4713,7 @@
         <v>228</v>
       </c>
       <c r="E229">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="230">
@@ -4732,7 +4732,7 @@
         <v>229</v>
       </c>
       <c r="E230">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="231">
@@ -4770,7 +4770,7 @@
         <v>231</v>
       </c>
       <c r="E232">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="233">
@@ -4846,7 +4846,7 @@
         <v>235</v>
       </c>
       <c r="E236">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="237">
@@ -4865,7 +4865,7 @@
         <v>236</v>
       </c>
       <c r="E237">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="238">
@@ -4903,7 +4903,7 @@
         <v>238</v>
       </c>
       <c r="E239">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="240">
@@ -4960,7 +4960,7 @@
         <v>241</v>
       </c>
       <c r="E242">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243">
@@ -4998,7 +4998,7 @@
         <v>243</v>
       </c>
       <c r="E244">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="245">
@@ -5074,7 +5074,7 @@
         <v>247</v>
       </c>
       <c r="E248">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249">
@@ -5093,7 +5093,7 @@
         <v>248</v>
       </c>
       <c r="E249">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="250">
@@ -5112,7 +5112,7 @@
         <v>249</v>
       </c>
       <c r="E250">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="251">
@@ -5131,7 +5131,7 @@
         <v>250</v>
       </c>
       <c r="E251">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="252">
@@ -5150,7 +5150,7 @@
         <v>251</v>
       </c>
       <c r="E252">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="253">
@@ -5188,7 +5188,7 @@
         <v>253</v>
       </c>
       <c r="E254">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="255">
@@ -5264,7 +5264,7 @@
         <v>257</v>
       </c>
       <c r="E258">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="259">
@@ -5302,7 +5302,7 @@
         <v>259</v>
       </c>
       <c r="E260">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="261">
@@ -5340,7 +5340,7 @@
         <v>261</v>
       </c>
       <c r="E262">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="263">
@@ -5416,7 +5416,7 @@
         <v>265</v>
       </c>
       <c r="E266">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="267">
@@ -5435,7 +5435,7 @@
         <v>266</v>
       </c>
       <c r="E267">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="268">
@@ -5473,7 +5473,7 @@
         <v>268</v>
       </c>
       <c r="E269">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="270">
@@ -5492,7 +5492,7 @@
         <v>269</v>
       </c>
       <c r="E270">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="271">
@@ -5549,7 +5549,7 @@
         <v>272</v>
       </c>
       <c r="E273">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="274">
@@ -5568,7 +5568,7 @@
         <v>273</v>
       </c>
       <c r="E274">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="275">
@@ -5587,7 +5587,7 @@
         <v>274</v>
       </c>
       <c r="E275">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="276">
@@ -5606,7 +5606,7 @@
         <v>275</v>
       </c>
       <c r="E276">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="277">
@@ -5663,7 +5663,7 @@
         <v>278</v>
       </c>
       <c r="E279">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="280">
@@ -5701,7 +5701,7 @@
         <v>280</v>
       </c>
       <c r="E281">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="282">
@@ -5739,7 +5739,7 @@
         <v>282</v>
       </c>
       <c r="E283">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="284">
@@ -5777,7 +5777,7 @@
         <v>284</v>
       </c>
       <c r="E285">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="286">
@@ -5796,7 +5796,7 @@
         <v>285</v>
       </c>
       <c r="E286">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="287">
@@ -5853,7 +5853,7 @@
         <v>288</v>
       </c>
       <c r="E289">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290">
@@ -5910,7 +5910,7 @@
         <v>291</v>
       </c>
       <c r="E292">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="293">
@@ -5929,7 +5929,7 @@
         <v>292</v>
       </c>
       <c r="E293">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="294">
@@ -5967,7 +5967,7 @@
         <v>294</v>
       </c>
       <c r="E295">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296">
@@ -6081,7 +6081,7 @@
         <v>300</v>
       </c>
       <c r="E301">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="302">
@@ -6138,7 +6138,7 @@
         <v>303</v>
       </c>
       <c r="E304">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="305">
@@ -6195,7 +6195,7 @@
         <v>306</v>
       </c>
       <c r="E307">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="308">
@@ -6271,7 +6271,7 @@
         <v>310</v>
       </c>
       <c r="E311">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="312">
@@ -6442,7 +6442,7 @@
         <v>319</v>
       </c>
       <c r="E320">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="321">
@@ -6480,7 +6480,7 @@
         <v>321</v>
       </c>
       <c r="E322">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="323">
@@ -6518,7 +6518,7 @@
         <v>323</v>
       </c>
       <c r="E324">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="325">
@@ -6537,7 +6537,7 @@
         <v>324</v>
       </c>
       <c r="E325">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="326">
@@ -6613,7 +6613,7 @@
         <v>328</v>
       </c>
       <c r="E329">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="330">
@@ -6708,7 +6708,7 @@
         <v>333</v>
       </c>
       <c r="E334">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="335">
@@ -6822,7 +6822,7 @@
         <v>339</v>
       </c>
       <c r="E340">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="341">
@@ -6879,7 +6879,7 @@
         <v>342</v>
       </c>
       <c r="E343">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="344">
@@ -6917,7 +6917,7 @@
         <v>344</v>
       </c>
       <c r="E345">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="346">
@@ -6936,7 +6936,7 @@
         <v>345</v>
       </c>
       <c r="E346">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="347">
@@ -7031,7 +7031,7 @@
         <v>350</v>
       </c>
       <c r="E351">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="352">
@@ -7050,7 +7050,7 @@
         <v>351</v>
       </c>
       <c r="E352">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="353">
@@ -7069,7 +7069,7 @@
         <v>352</v>
       </c>
       <c r="E353">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="354">
@@ -7088,7 +7088,7 @@
         <v>353</v>
       </c>
       <c r="E354">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="355">
@@ -7145,7 +7145,7 @@
         <v>356</v>
       </c>
       <c r="E357">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="358">
@@ -7164,7 +7164,7 @@
         <v>357</v>
       </c>
       <c r="E358">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="359">
@@ -7221,7 +7221,7 @@
         <v>360</v>
       </c>
       <c r="E361">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="362">
@@ -7278,7 +7278,7 @@
         <v>363</v>
       </c>
       <c r="E364">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="365">
